--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr5_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr5_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,7 +247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -199,45 +265,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.35230030999210421</v>
+        <v>0.35218024105669626</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.32042360277940585</v>
+        <v>0.32048139393174885</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0045159628687709945</v>
+        <v>-0.0044878951460563827</v>
       </c>
       <c r="E3" s="0">
-        <v>5.5398731815013056e-06</v>
+        <v>2.9337579514897314e-06</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00085789827844762049</v>
+        <v>-0.0008327060020070845</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0004285346235965687</v>
+        <v>0.00042867416477270084</v>
       </c>
       <c r="H3" s="0">
-        <v>-2.9309905604357177e-05</v>
+        <v>-2.8388434234428271e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0014242489739920837</v>
+        <v>-0.0014282914338605839</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0030495542055563041</v>
+        <v>0.0030495579002940976</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.31324301431671214</v>
+        <v>0.3120143355135771</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0013167034930061281</v>
+        <v>-0.0016584969127902954</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>7.3063459941286895e-05</v>
+        <v>7.2896838313608826e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>4.3146947810645435e-05</v>
+        <v>4.2946515389359166e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00014127168954580123</v>
+        <v>0.00014104833714082671</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0014976055300982797</v>
+        <v>-0.0014968842165081655</v>
       </c>
       <c r="J4" s="0">
-        <v>6.1556865634838432e-05</v>
+        <v>6.0280135723996236e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.0002336850733557494</v>
+        <v>-0.00023368164679365977</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.31701521652793685</v>
+        <v>0.31695628059322567</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0053646893035961297</v>
+        <v>0.0058027197957515987</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0069294834486054429</v>
+        <v>-0.006952912257551817</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00011359867780517225</v>
+        <v>0.00011587576333355997</v>
       </c>
       <c r="F5" s="0">
-        <v>0.00025180692803003838</v>
+        <v>0.00024269560581075144</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.00076332699732642158</v>
+        <v>-0.00076361594681880808</v>
       </c>
       <c r="H5" s="0">
-        <v>-5.4223890126780992e-05</v>
+        <v>-5.4692140792952069e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00074196818016892109</v>
+        <v>-0.00074125837541133294</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.0022862293266872613</v>
+        <v>-0.0022862372699788969</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.41486127820912466</v>
+        <v>0.41463873351317437</v>
       </c>
       <c r="C6" s="0">
-        <v>0.030359359763895317</v>
+        <v>0.030283824161147464</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.0001919124272083443</v>
+        <v>-0.00019192245658793846</v>
       </c>
       <c r="F6" s="0">
-        <v>-7.9118370027509986e-05</v>
+        <v>-7.8916046389591985e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-6.6010948578864993e-05</v>
+        <v>-6.6348464938971121e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0020289514943737518</v>
+        <v>-0.0020346974687118703</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-9.3075130653930138e-05</v>
+        <v>-9.3074188638297972e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.36767912526672192</v>
+        <v>0.36739228976009913</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0016683776061080513</v>
+        <v>-0.0017191856891314295</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00043634315836072314</v>
+        <v>-0.00043013961018106785</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0039046991846310997</v>
+        <v>-0.0038991598884236599</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00069817572186765212</v>
+        <v>0.00069948612090510801</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00022822538262585245</v>
+        <v>0.00022766811578112825</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.0022481742375502489</v>
+        <v>0.0022481767973412947</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.21387252847904986</v>
+        <v>0.21408558250338719</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.046853434056184619</v>
+        <v>-0.046643516148110568</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>7.8417038435016933e-05</v>
+        <v>7.8473259738773735e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.0004705293147309283</v>
+        <v>-0.00047034736744417456</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>6.2025947290609131e-05</v>
+        <v>6.2038470645870575e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>0.0020095790524937217</v>
+        <v>0.00201040458406085</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.00076558898896533778</v>
+        <v>-0.00076558366432194491</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>0.23234443991011031</v>
+        <v>0.23280833582264826</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0017956379710990667</v>
+        <v>0.0018377483539183301</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0030139321066688526</v>
+        <v>-0.0030225211566578657</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0052306432903087103</v>
+        <v>-0.0052427703750187208</v>
       </c>
       <c r="G9" s="0">
-        <v>0.00076886329366294883</v>
+        <v>0.00076479535619209435</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00015779583384959543</v>
+        <v>-0.0001566309622785291</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.00051816466614059472</v>
+        <v>-0.00051760897482133522</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.0002874051937222788</v>
+        <v>0.00028739805146310582</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.44662100279763273</v>
+        <v>0.44642664801682885</v>
       </c>
       <c r="C10" s="0">
-        <v>0.081649378007829371</v>
+        <v>0.081767969375010408</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-2.6799773465419786e-05</v>
+        <v>-2.690865251994669e-05</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00049325885385861478</v>
+        <v>-0.00049298261010087346</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-2.1403120354010654e-05</v>
+        <v>-2.1405941517767209e-05</v>
       </c>
       <c r="I10" s="0">
-        <v>-0.00084392577440611869</v>
+        <v>-0.00083417053275964084</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0021200296146336763</v>
+        <v>-0.0021212544120597569</v>
       </c>
       <c r="K10" s="0">
-        <v>0.00025691055651688721</v>
+        <v>0.00025689495522590589</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.38703014845032269</v>
+        <v>0.38756865210384556</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.01794340013479229</v>
+        <v>-0.017914992749434085</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0018711610558271067</v>
+        <v>0.0018728486462534564</v>
       </c>
       <c r="F11" s="0">
-        <v>0.0036553227886295865</v>
+        <v>0.0036616865337661501</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0013524856908934831</v>
+        <v>0.001355995284777732</v>
       </c>
       <c r="H11" s="0">
-        <v>0.00022725181356133566</v>
+        <v>0.00022536364559351527</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.0042124746213063145</v>
+        <v>-0.0042325952586625623</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.017250791910776997</v>
+        <v>0.01725078409200248</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.28991336193679462</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.051337259281490105</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.00012656293308171431</v>
+      </c>
+      <c r="F12" s="0">
+        <v>3.285912095070394e-06</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>6.7778528674697485e-06</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0.00018186268707490522</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>6.2636305277752324e-05</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr5_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr5_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -259,51 +400,51 @@
     <col min="7" max="7" width="16.24609375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.24609375" customWidth="true"/>
+    <col min="10" max="10" width="15.1796875" customWidth="true"/>
     <col min="11" max="11" width="16.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.35218024105669626</v>
+        <v>0.35276112604127452</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.32048139393174885</v>
+        <v>0.32061130577495295</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0044878951460563827</v>
+        <v>-0.0045422845927690783</v>
       </c>
       <c r="E3" s="0">
-        <v>2.9337579514897314e-06</v>
+        <v>4.2162441612394613e-06</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.0008327060020070845</v>
+        <v>-0.00085110640611626932</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00042867416477270084</v>
+        <v>0.00042940029269819546</v>
       </c>
       <c r="H3" s="0">
-        <v>-2.8388434234428271e-05</v>
+        <v>-2.9170097615617006e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0014282914338605839</v>
+        <v>-0.0014340368179420271</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0030495579002940976</v>
+        <v>0.0030495630559798093</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.3120143355135771</v>
+        <v>0.31210038751097136</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0016584969127902954</v>
+        <v>-0.0015077614185901305</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>7.2896838313608826e-05</v>
+        <v>7.2926025570330913e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>4.2946515389359166e-05</v>
+        <v>4.1991127830454641e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00014104833714082671</v>
+        <v>0.00013939639167324689</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0014968842165081655</v>
+        <v>-0.0014996108466283913</v>
       </c>
       <c r="J4" s="0">
-        <v>6.0280135723996236e-05</v>
+        <v>5.8476038425667576e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.00023368164679365977</v>
+        <v>-0.00023370518340115609</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.31695628059322567</v>
+        <v>0.31569427153929946</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0058027197957515987</v>
+        <v>0.0053970141272201367</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.006952912257551817</v>
+        <v>-0.0069313352928836829</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00011587576333355997</v>
+        <v>0.00011233018385858743</v>
       </c>
       <c r="F5" s="0">
-        <v>0.00024269560581075144</v>
+        <v>0.00022875723517992927</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.00076361594681880808</v>
+        <v>-0.00076710693508720269</v>
       </c>
       <c r="H5" s="0">
-        <v>-5.4692140792952069e-05</v>
+        <v>-5.4461465112277169e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00074125837541133294</v>
+        <v>-0.00074026346987948537</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.0022862372699788969</v>
+        <v>-0.002286219980693005</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.41463873351317437</v>
+        <v>0.41509368585680406</v>
       </c>
       <c r="C6" s="0">
-        <v>0.030283824161147464</v>
+        <v>0.030719859215722053</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.00019192245658793846</v>
+        <v>-0.00019193764807281759</v>
       </c>
       <c r="F6" s="0">
-        <v>-7.8916046389591985e-05</v>
+        <v>-7.8750020208302848e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-6.6348464938971121e-05</v>
+        <v>-6.6194944212714888e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0020346974687118703</v>
+        <v>-0.0020335102719818217</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-9.3074188638297972e-05</v>
+        <v>-9.3093473389593839e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.36739228976009913</v>
+        <v>0.36799258604291074</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0017191856891314295</v>
+        <v>-0.0017411101058001724</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00043013961018106785</v>
+        <v>-0.00041914048415497439</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0038991598884236599</v>
+        <v>-0.0038688571947735209</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00069948612090510801</v>
+        <v>0.00070203122216528236</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00022766811578112825</v>
+        <v>0.00022677533817934555</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.0022481767973412947</v>
+        <v>0.0022481705205273927</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.21408558250338719</v>
+        <v>0.21366809470918749</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.046643516148110568</v>
+        <v>-0.04729941742886884</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>7.8473259738773735e-05</v>
+        <v>7.8609744333606014e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00047034736744417456</v>
+        <v>-0.00046999673404129691</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>6.2038470645870575e-05</v>
+        <v>6.2214169240168427e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>0.00201040458406085</v>
+        <v>0.0020110551200551233</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.00076558366432194491</v>
+        <v>-0.00076560717471252371</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>0.23280833582264826</v>
+        <v>0.23188858624866882</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0018377483539183301</v>
+        <v>0.0017964370327634351</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0030225211566578657</v>
+        <v>-0.0030329449080828772</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0052427703750187208</v>
+        <v>-0.0052522662397274933</v>
       </c>
       <c r="G9" s="0">
-        <v>0.00076479535619209435</v>
+        <v>0.00076944050264701584</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0001566309622785291</v>
+        <v>-0.00015608915336770321</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.00051760897482133522</v>
+        <v>-0.00051720740686656843</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.00028739805146310582</v>
+        <v>0.00028741306053586824</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.44642664801682885</v>
+        <v>0.44702486984770368</v>
       </c>
       <c r="C10" s="0">
-        <v>0.081767969375010408</v>
+        <v>0.082302283396750761</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-2.690865251994669e-05</v>
+        <v>-2.6849499025467846e-05</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00049298261010087346</v>
+        <v>-0.00049699163007178491</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-2.1405941517767209e-05</v>
+        <v>-2.1551512956957239e-05</v>
       </c>
       <c r="I10" s="0">
-        <v>-0.00083417053275964084</v>
+        <v>-0.00084340930097734324</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0021212544120597569</v>
+        <v>-0.0020833570702538484</v>
       </c>
       <c r="K10" s="0">
-        <v>0.00025689495522590589</v>
+        <v>0.00025690265746880492</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.38756865210384556</v>
+        <v>0.3861195602068474</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.017914992749434085</v>
+        <v>-0.018186602844916008</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0018728486462534564</v>
+        <v>0.0018796778047865815</v>
       </c>
       <c r="F11" s="0">
-        <v>0.0036616865337661501</v>
+        <v>0.0035408364935428393</v>
       </c>
       <c r="G11" s="0">
-        <v>0.001355995284777732</v>
+        <v>0.0013626314091460996</v>
       </c>
       <c r="H11" s="0">
-        <v>0.00022536364559351527</v>
+        <v>0.00022270156030323147</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.0042325952586625623</v>
+        <v>-0.0042584973494587709</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.01725078409200248</v>
+        <v>0.017250778519028009</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.28991336193679462</v>
+        <v>0.29371877946233954</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.051337259281490105</v>
+        <v>-0.062218453746944319</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>0.00012656293308171431</v>
+        <v>0.00013684337255564659</v>
       </c>
       <c r="F12" s="0">
-        <v>3.285912095070394e-06</v>
+        <v>0.0030054652577913301</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>6.7778528674697485e-06</v>
+        <v>0.0012301840748233344</v>
       </c>
       <c r="I12" s="0">
-        <v>0.00018186268707490522</v>
+        <v>0.0066368689778577268</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>6.2636305277752324e-05</v>
+        <v>0.00018105315602628957</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.14575999055464978</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.052111286607710083</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.0013301385037986326</v>
+      </c>
+      <c r="F13" s="0">
+        <v>-0.014297444286069281</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.0010200478706406313</v>
+      </c>
+      <c r="H13" s="0">
+        <v>-0.00050440372602961572</v>
+      </c>
+      <c r="I13" s="0">
+        <v>-0.0006742964973632811</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>-0.052740879528732382</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.071099797852614416</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.13133828737435521</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>5.1425793722617637e-05</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0.00041423985959245522</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0.00017002124370840544</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.021757257045739043</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>1.2328503772307542e-06</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr5_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr5_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,11 +463,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="12.64453125" customWidth="true"/>
+    <col min="2" max="2" width="13.64453125" customWidth="true"/>
     <col min="3" max="3" width="15.24609375" customWidth="true"/>
     <col min="4" max="4" width="15.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.35276112604127452</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.32061130577495295</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.31210038751097136</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.31569427153929946</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.41509368585680406</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.36799258604291074</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.21366809470918749</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>0.23188858624866882</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.44702486984770368</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.3861195602068474</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.29371877946233954</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.14575999055464978</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.071099797852614416</v>
+        <v>0.094950500340062832</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.13133828737435521</v>
+        <v>-0.10781212540554488</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>5.1425793722617637e-05</v>
+        <v>1.12112576952107e-05</v>
       </c>
       <c r="F14" s="0">
-        <v>0.00041423985959245522</v>
+        <v>-0.00013160481939991802</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>0.00017002124370840544</v>
+        <v>-0.0016175635269394032</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.021757257045739043</v>
+        <v>-0.0023939245817558856</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>1.2328503772307542e-06</v>
+        <v>0.0026216268297057366</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0.23252252471565549</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.096348837870602458</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.0023731762677632294</v>
+      </c>
+      <c r="F15" s="0">
+        <v>-0.00020898046237120498</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.0099887418823706303</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>0.027684047547551466</v>
       </c>
     </row>
   </sheetData>
